--- a/DataSet/NewUATDeals_DataSet/Transformation_Layer/TL_Base_Rate/BaseRates_Files_04MAR2020/TL_Transformed_Data_BaseRate.xlsx
+++ b/DataSet/NewUATDeals_DataSet/Transformation_Layer/TL_Base_Rate/BaseRates_Files_04MAR2020/TL_Transformed_Data_BaseRate.xlsx
@@ -387,7 +387,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
@@ -563,6 +563,81 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>BANKBILL</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>AUD</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.595</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>003M</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>DEPOSIT</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>COMRLENDING</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>AUD,EUR</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>
